--- a/New/Output/template.xlsx
+++ b/New/Output/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="803">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -2737,6 +2737,15 @@
   </si>
   <si>
     <t>Korwa</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
   </si>
 </sst>
 </file>
@@ -3273,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1039"/>
+  <dimension ref="A1:T1039"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="R1" sqref="R1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3295,7 @@
     <col min="3" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3309,18 +3318,48 @@
         <v>797</v>
       </c>
       <c r="H1" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>776</v>
       </c>
@@ -3328,7 +3367,7 @@
         <v>100100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>777</v>
       </c>
@@ -3336,7 +3375,7 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3344,7 +3383,7 @@
         <v>100300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3391,7 @@
         <v>100400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3360,7 +3399,7 @@
         <v>100500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3407,7 @@
         <v>100600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -3376,7 +3415,7 @@
         <v>200100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3423,7 @@
         <v>200125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3431,7 @@
         <v>200150</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -3400,7 +3439,7 @@
         <v>200200</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3447,7 @@
         <v>200225</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -3416,7 +3455,7 @@
         <v>200250</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
